--- a/ファイル構成一覧.xlsx
+++ b/ファイル構成一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtsuyaSawaragi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61943222-9FFD-4C67-B834-2DAC9B2A03BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29809D25-3A44-481D-AC89-54FF406C5BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="109">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -561,6 +561,24 @@
   <si>
     <t>SelectService.java</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+  </si>
+  <si>
+    <t>椹</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>近藤</t>
+  </si>
+  <si>
+    <t>八木</t>
   </si>
 </sst>
 </file>
@@ -986,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1036,7 +1054,9 @@
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
@@ -1055,7 +1075,9 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
@@ -1074,7 +1096,9 @@
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
@@ -1093,7 +1117,9 @@
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
@@ -1112,7 +1138,9 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
@@ -1131,7 +1159,9 @@
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
@@ -1150,7 +1180,9 @@
       <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
@@ -1169,7 +1201,9 @@
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
@@ -1188,7 +1222,9 @@
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
@@ -1207,7 +1243,9 @@
       <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
@@ -1226,7 +1264,9 @@
       <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
@@ -1245,7 +1285,9 @@
       <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
@@ -1264,7 +1306,9 @@
       <c r="F15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
@@ -1283,7 +1327,9 @@
       <c r="F16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
@@ -1302,7 +1348,9 @@
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
@@ -1321,7 +1369,9 @@
       <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
@@ -1340,7 +1390,9 @@
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
@@ -1359,7 +1411,9 @@
       <c r="F20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
@@ -1378,7 +1432,9 @@
       <c r="F21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
@@ -1395,7 +1451,9 @@
         <v>46</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
@@ -1414,7 +1472,9 @@
       <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I23" t="s">
         <v>86</v>
       </c>
@@ -1434,7 +1494,9 @@
         <v>48</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I24" t="s">
         <v>87</v>
       </c>
@@ -1456,7 +1518,9 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I25" t="s">
         <v>52</v>
       </c>
@@ -1476,7 +1540,9 @@
         <v>51</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I26" t="s">
         <v>88</v>
       </c>
@@ -1498,7 +1564,9 @@
       <c r="F27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I27" t="s">
         <v>89</v>
       </c>
@@ -1518,7 +1586,9 @@
         <v>54</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I28" t="s">
         <v>90</v>
       </c>
@@ -1540,7 +1610,9 @@
       <c r="F29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
@@ -1557,7 +1629,9 @@
         <v>98</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
@@ -1612,7 +1686,9 @@
       <c r="F33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
@@ -1629,7 +1705,9 @@
         <v>102</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
@@ -1648,7 +1726,9 @@
       <c r="F35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
@@ -1665,7 +1745,9 @@
         <v>59</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
@@ -1682,7 +1764,9 @@
         <v>66</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
@@ -1699,7 +1783,9 @@
         <v>68</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
@@ -1716,7 +1802,9 @@
         <v>67</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
@@ -1733,7 +1821,9 @@
         <v>69</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
@@ -1750,7 +1840,9 @@
         <v>70</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
@@ -1767,7 +1859,9 @@
         <v>71</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
@@ -1785,7 +1879,9 @@
         <v>72</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
@@ -1802,7 +1898,9 @@
         <v>73</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="1">
@@ -1819,7 +1917,9 @@
         <v>74</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="1">
@@ -1836,7 +1936,9 @@
         <v>76</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" s="1">
@@ -1853,7 +1955,9 @@
         <v>91</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="1">
@@ -1870,7 +1974,9 @@
         <v>77</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" s="1">
@@ -1887,7 +1993,9 @@
         <v>92</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" s="1">
@@ -1904,7 +2012,9 @@
         <v>93</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" s="1">
@@ -1921,7 +2031,9 @@
         <v>94</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B52" s="1">
@@ -1938,7 +2050,9 @@
         <v>95</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B53" s="1">
@@ -1955,7 +2069,9 @@
         <v>96</v>
       </c>
       <c r="F53" s="3"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" s="1">
@@ -1972,7 +2088,9 @@
         <v>78</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" s="1">
@@ -1989,7 +2107,9 @@
         <v>79</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" s="1">
@@ -2006,7 +2126,9 @@
         <v>83</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B57" s="1"/>
@@ -2193,12 +2315,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2369,6 +2485,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -2378,23 +2500,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2411,4 +2516,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>